--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspaces\W003\RachitFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E3C389-F9DD-44D1-84C8-B014FFCD0457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B126AE1-7EA8-44D9-B7C7-12186AE6013B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Uname</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Test1234</t>
   </si>
@@ -357,31 +348,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspaces\W003\RachitFramework\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B126AE1-7EA8-44D9-B7C7-12186AE6013B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E1780BC8-DFDE-4102-9A91-0070716D29FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +21,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test1234</t>
   </si>
   <si>
     <t>rachit@test.com</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
@@ -66,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,20 +357,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>34206</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
